--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2112,7 +2112,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2127,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43924</v>
+        <v>43927</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2805,6 +2805,39 @@
       </c>
       <c r="C63" s="5">
         <v>1974</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A64" s="1">
+        <v>43925</v>
+      </c>
+      <c r="B64" s="5">
+        <v>191</v>
+      </c>
+      <c r="C64" s="5">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A65" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B65" s="5">
+        <v>188</v>
+      </c>
+      <c r="C65" s="5">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A66" s="1">
+        <v>43927</v>
+      </c>
+      <c r="B66" s="5">
+        <v>1625</v>
+      </c>
+      <c r="C66" s="5">
+        <v>2165</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2112,7 +2112,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2127,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2838,6 +2838,17 @@
       </c>
       <c r="C66" s="5">
         <v>2165</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A67" s="1">
+        <v>43928</v>
+      </c>
+      <c r="B67" s="5">
+        <v>1364</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1737</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2112,7 +2112,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C67"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2127,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2849,6 +2849,17 @@
       </c>
       <c r="C67" s="5">
         <v>1737</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A68" s="1">
+        <v>43929</v>
+      </c>
+      <c r="B68" s="5">
+        <v>1414</v>
+      </c>
+      <c r="C68" s="5">
+        <v>2094</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2112,7 +2112,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C68"/>
+  <dimension ref="A1:C69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2127,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2860,6 +2860,17 @@
       </c>
       <c r="C68" s="5">
         <v>2094</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A69" s="1">
+        <v>43930</v>
+      </c>
+      <c r="B69" s="5">
+        <v>1294</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2274</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2112,7 +2112,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C69"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2127,7 +2127,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43930</v>
+        <v>43934</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2871,6 +2871,50 @@
       </c>
       <c r="C69" s="5">
         <v>2274</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A70" s="1">
+        <v>43931</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1344</v>
+      </c>
+      <c r="C70" s="5">
+        <v>2539</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A71" s="1">
+        <v>43932</v>
+      </c>
+      <c r="B71" s="5">
+        <v>366</v>
+      </c>
+      <c r="C71" s="5">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A72" s="1">
+        <v>43933</v>
+      </c>
+      <c r="B72" s="5">
+        <v>348</v>
+      </c>
+      <c r="C72" s="5">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A73" s="1">
+        <v>43934</v>
+      </c>
+      <c r="B73" s="5">
+        <v>1759</v>
+      </c>
+      <c r="C73">
+        <v>2037</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -143,7 +143,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -163,6 +163,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2112,7 +2115,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2127,7 +2130,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2915,6 +2918,17 @@
       </c>
       <c r="C73">
         <v>2037</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A74" s="1">
+        <v>43935</v>
+      </c>
+      <c r="B74" s="7">
+        <v>1269</v>
+      </c>
+      <c r="C74" s="3">
+        <v>2373</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2115,7 +2115,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2130,7 +2130,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2929,6 +2929,17 @@
       </c>
       <c r="C74" s="3">
         <v>2373</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A75" s="1">
+        <v>43936</v>
+      </c>
+      <c r="B75" s="7">
+        <v>1159</v>
+      </c>
+      <c r="C75" s="7">
+        <v>2343</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2115,7 +2115,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C75"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2130,7 +2130,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2940,6 +2940,17 @@
       </c>
       <c r="C75" s="7">
         <v>2343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A76" s="1">
+        <v>43937</v>
+      </c>
+      <c r="B76" s="7">
+        <v>1245</v>
+      </c>
+      <c r="C76" s="3">
+        <v>2337</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -95,12 +95,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -143,7 +149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -166,6 +172,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2115,7 +2124,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2130,7 +2139,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2951,6 +2960,17 @@
       </c>
       <c r="C76" s="3">
         <v>2337</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A77" s="1">
+        <v>43938</v>
+      </c>
+      <c r="B77" s="7">
+        <v>1176</v>
+      </c>
+      <c r="C77" s="8">
+        <v>2913</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2124,7 +2124,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C77"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2139,7 +2139,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43938</v>
+        <v>43941</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -2971,6 +2971,39 @@
       </c>
       <c r="C77" s="8">
         <v>2913</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="1">
+        <v>43939</v>
+      </c>
+      <c r="B78" s="8">
+        <v>443</v>
+      </c>
+      <c r="C78" s="8">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A79" s="1">
+        <v>43940</v>
+      </c>
+      <c r="B79" s="8">
+        <v>445</v>
+      </c>
+      <c r="C79" s="8">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A80" s="1">
+        <v>43941</v>
+      </c>
+      <c r="B80" s="8">
+        <v>1377</v>
+      </c>
+      <c r="C80" s="8">
+        <v>2460</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2124,7 +2124,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2139,7 +2139,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3004,6 +3004,17 @@
       </c>
       <c r="C80" s="8">
         <v>2460</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A81" s="1">
+        <v>43942</v>
+      </c>
+      <c r="B81" s="8">
+        <v>1061</v>
+      </c>
+      <c r="C81" s="7">
+        <v>2306</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -149,7 +149,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -175,6 +175,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2124,10 +2127,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C81"/>
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2139,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3015,6 +3018,17 @@
       </c>
       <c r="C81" s="7">
         <v>2306</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A82" s="9">
+        <v>43943</v>
+      </c>
+      <c r="B82" s="7">
+        <v>977</v>
+      </c>
+      <c r="C82" s="7">
+        <v>2490</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2127,10 +2127,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C82"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3029,6 +3029,17 @@
       </c>
       <c r="C82" s="7">
         <v>2490</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A83" s="1">
+        <v>43944</v>
+      </c>
+      <c r="B83" s="7">
+        <v>934</v>
+      </c>
+      <c r="C83" s="7">
+        <v>2290</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C83"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3040,6 +3040,17 @@
       </c>
       <c r="C83" s="7">
         <v>2290</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A84" s="1">
+        <v>43945</v>
+      </c>
+      <c r="B84" s="7">
+        <v>1038</v>
+      </c>
+      <c r="C84" s="7">
+        <v>2526</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C84"/>
+  <dimension ref="A1:C87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43945</v>
+        <v>43948</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3051,6 +3051,39 @@
       </c>
       <c r="C84" s="7">
         <v>2526</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A85" s="1">
+        <v>43946</v>
+      </c>
+      <c r="B85">
+        <v>549</v>
+      </c>
+      <c r="C85">
+        <v>2093</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A86" s="1">
+        <v>43947</v>
+      </c>
+      <c r="B86">
+        <v>427</v>
+      </c>
+      <c r="C86">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A87" s="1">
+        <v>43948</v>
+      </c>
+      <c r="B87">
+        <v>1142</v>
+      </c>
+      <c r="C87">
+        <v>2288</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:C89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43948</v>
+        <v>43950</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3084,6 +3084,28 @@
       </c>
       <c r="C87">
         <v>2288</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A88" s="1">
+        <v>43949</v>
+      </c>
+      <c r="B88" s="7">
+        <v>836</v>
+      </c>
+      <c r="C88" s="7">
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A89" s="1">
+        <v>43950</v>
+      </c>
+      <c r="B89" s="7">
+        <v>445</v>
+      </c>
+      <c r="C89" s="3">
+        <v>423</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43950</v>
+        <v>43957</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3106,6 +3106,83 @@
       </c>
       <c r="C89" s="3">
         <v>423</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A90" s="1">
+        <v>43951</v>
+      </c>
+      <c r="B90" s="3">
+        <v>938</v>
+      </c>
+      <c r="C90" s="3">
+        <v>2258</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A91" s="1">
+        <v>43952</v>
+      </c>
+      <c r="B91" s="3">
+        <v>712</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A92" s="1">
+        <v>43953</v>
+      </c>
+      <c r="B92" s="3">
+        <v>432</v>
+      </c>
+      <c r="C92" s="3">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A93" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B93" s="3">
+        <v>399</v>
+      </c>
+      <c r="C93" s="3">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A94" s="1">
+        <v>43955</v>
+      </c>
+      <c r="B94" s="3">
+        <v>513</v>
+      </c>
+      <c r="C94" s="3">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A95" s="1">
+        <v>43956</v>
+      </c>
+      <c r="B95" s="3">
+        <v>507</v>
+      </c>
+      <c r="C95" s="3">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A96" s="1">
+        <v>43957</v>
+      </c>
+      <c r="B96" s="3">
+        <v>560</v>
+      </c>
+      <c r="C96" s="3">
+        <v>1732</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43957</v>
+        <v>43958</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3183,6 +3183,17 @@
       </c>
       <c r="C96" s="3">
         <v>1732</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A97" s="1">
+        <v>43958</v>
+      </c>
+      <c r="B97" s="3">
+        <v>902</v>
+      </c>
+      <c r="C97" s="3">
+        <v>2290</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43958</v>
+        <v>43959</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3194,6 +3194,17 @@
       </c>
       <c r="C97" s="3">
         <v>2290</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A98" s="1">
+        <v>43959</v>
+      </c>
+      <c r="B98" s="3">
+        <v>589</v>
+      </c>
+      <c r="C98" s="3">
+        <v>1966</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C98"/>
+  <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43959</v>
+        <v>43962</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3205,6 +3205,39 @@
       </c>
       <c r="C98" s="3">
         <v>1966</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A99" s="1">
+        <v>43960</v>
+      </c>
+      <c r="B99" s="3">
+        <v>516</v>
+      </c>
+      <c r="C99" s="3">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A100" s="1">
+        <v>43961</v>
+      </c>
+      <c r="B100" s="3">
+        <v>366</v>
+      </c>
+      <c r="C100" s="3">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A101" s="1">
+        <v>43962</v>
+      </c>
+      <c r="B101" s="3">
+        <v>921</v>
+      </c>
+      <c r="C101" s="3">
+        <v>2141</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C101"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43962</v>
+        <v>43963</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3238,6 +3238,17 @@
       </c>
       <c r="C101" s="3">
         <v>2141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A102" s="1">
+        <v>43963</v>
+      </c>
+      <c r="B102" s="3">
+        <v>535</v>
+      </c>
+      <c r="C102" s="3">
+        <v>1815</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43963</v>
+        <v>43964</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3249,6 +3249,17 @@
       </c>
       <c r="C102" s="3">
         <v>1815</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A103" s="1">
+        <v>43964</v>
+      </c>
+      <c r="B103" s="3">
+        <v>532</v>
+      </c>
+      <c r="C103" s="3">
+        <v>1592</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -1831,15 +1831,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>485774</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>266699</xdr:colOff>
+      <xdr:colOff>228599</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>66676</xdr:rowOff>
+      <xdr:rowOff>76201</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43964</v>
+        <v>43965</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3260,6 +3260,17 @@
       </c>
       <c r="C103" s="3">
         <v>1592</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A104" s="1">
+        <v>43965</v>
+      </c>
+      <c r="B104" s="3">
+        <v>463</v>
+      </c>
+      <c r="C104" s="3">
+        <v>1555</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43965</v>
+        <v>43969</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3271,6 +3271,50 @@
       </c>
       <c r="C104" s="3">
         <v>1555</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A105" s="1">
+        <v>43966</v>
+      </c>
+      <c r="B105" s="3">
+        <v>392</v>
+      </c>
+      <c r="C105" s="3">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A106" s="1">
+        <v>43967</v>
+      </c>
+      <c r="B106" s="3">
+        <v>287</v>
+      </c>
+      <c r="C106" s="3">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A107" s="1">
+        <v>43968</v>
+      </c>
+      <c r="B107" s="3">
+        <v>291</v>
+      </c>
+      <c r="C107" s="3">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A108" s="1">
+        <v>43969</v>
+      </c>
+      <c r="B108" s="3">
+        <v>516</v>
+      </c>
+      <c r="C108" s="3">
+        <v>1425</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C108"/>
+  <dimension ref="A1:C109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43969</v>
+        <v>43970</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3315,6 +3315,17 @@
       </c>
       <c r="C108" s="3">
         <v>1425</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A109" s="1">
+        <v>43970</v>
+      </c>
+      <c r="B109" s="3">
+        <v>377</v>
+      </c>
+      <c r="C109" s="3">
+        <v>1104</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C109"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43970</v>
+        <v>43971</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3326,6 +3326,17 @@
       </c>
       <c r="C109" s="3">
         <v>1104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A110" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B110" s="3">
+        <v>312</v>
+      </c>
+      <c r="C110" s="3">
+        <v>1105</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43971</v>
+        <v>43972</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3337,6 +3337,17 @@
       </c>
       <c r="C110" s="3">
         <v>1105</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A111" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B111" s="3">
+        <v>316</v>
+      </c>
+      <c r="C111" s="3">
+        <v>882</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43972</v>
+        <v>43975</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3348,6 +3348,39 @@
       </c>
       <c r="C111" s="3">
         <v>882</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A112" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B112" s="3">
+        <v>278</v>
+      </c>
+      <c r="C112" s="3">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A113" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B113" s="3">
+        <v>221</v>
+      </c>
+      <c r="C113" s="3">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A114" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B114" s="3">
+        <v>157</v>
+      </c>
+      <c r="C114" s="3">
+        <v>363</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43975</v>
+        <v>43976</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3381,6 +3381,17 @@
       </c>
       <c r="C114" s="3">
         <v>363</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A115" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B115" s="3">
+        <v>360</v>
+      </c>
+      <c r="C115" s="3">
+        <v>949</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43976</v>
+        <v>43978</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3392,6 +3392,28 @@
       </c>
       <c r="C115" s="3">
         <v>949</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A116" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B116" s="3">
+        <v>265</v>
+      </c>
+      <c r="C116" s="3">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A117" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B117" s="3">
+        <v>240</v>
+      </c>
+      <c r="C117" s="3">
+        <v>738</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentManualCount="2"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C117"/>
+  <dimension ref="A1:C118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43978</v>
+        <v>43979</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3414,6 +3414,17 @@
       </c>
       <c r="C117" s="3">
         <v>738</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A118" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B118" s="3">
+        <v>236</v>
+      </c>
+      <c r="C118" s="3">
+        <v>681</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2127,7 +2127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C118"/>
+  <dimension ref="A1:C121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2142,7 +2142,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43979</v>
+        <v>43982</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3425,6 +3425,39 @@
       </c>
       <c r="C118" s="3">
         <v>681</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A119" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B119" s="3">
+        <v>226</v>
+      </c>
+      <c r="C119" s="3">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A120" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B120" s="3">
+        <v>158</v>
+      </c>
+      <c r="C120" s="3">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A121" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B121" s="3">
+        <v>147</v>
+      </c>
+      <c r="C121" s="3">
+        <v>472</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -73,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +93,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -149,7 +156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -178,6 +185,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2127,10 +2140,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2142,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43982</v>
+        <v>43984</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3460,10 +3473,32 @@
         <v>472</v>
       </c>
     </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A122" s="10">
+        <v>43983</v>
+      </c>
+      <c r="B122" s="11">
+        <v>317</v>
+      </c>
+      <c r="C122" s="11">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A123" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B123" s="3">
+        <v>270</v>
+      </c>
+      <c r="C123" s="3">
+        <v>894</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="85" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="32" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,10 +2140,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C124"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43984</v>
+        <v>43985</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3493,6 +3493,17 @@
       </c>
       <c r="C123" s="3">
         <v>894</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A124" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B124" s="3">
+        <v>274</v>
+      </c>
+      <c r="C124" s="3">
+        <v>859</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C124"/>
+  <dimension ref="A1:C125"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43985</v>
+        <v>43986</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3504,6 +3504,17 @@
       </c>
       <c r="C124" s="3">
         <v>859</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A125" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B125" s="3">
+        <v>327</v>
+      </c>
+      <c r="C125" s="3">
+        <v>971</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C126"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43986</v>
+        <v>43987</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3515,6 +3515,17 @@
       </c>
       <c r="C125" s="3">
         <v>971</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A126" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B126" s="3">
+        <v>297</v>
+      </c>
+      <c r="C126" s="3">
+        <v>842</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C129"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43987</v>
+        <v>43990</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3526,6 +3526,39 @@
       </c>
       <c r="C126" s="3">
         <v>842</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A127" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B127" s="3">
+        <v>167</v>
+      </c>
+      <c r="C127" s="3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A128" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B128" s="3">
+        <v>153</v>
+      </c>
+      <c r="C128" s="3">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A129" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B129" s="3">
+        <v>344</v>
+      </c>
+      <c r="C129" s="3">
+        <v>873</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43990</v>
+        <v>43991</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3559,6 +3559,17 @@
       </c>
       <c r="C129" s="3">
         <v>873</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A130" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B130" s="3">
+        <v>263</v>
+      </c>
+      <c r="C130" s="3">
+        <v>829</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C130"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3570,6 +3570,17 @@
       </c>
       <c r="C130" s="3">
         <v>829</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A131" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B131" s="3">
+        <v>233</v>
+      </c>
+      <c r="C131" s="3">
+        <v>725</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C131"/>
+  <dimension ref="A1:C135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43992</v>
+        <v>43996</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3581,6 +3581,50 @@
       </c>
       <c r="C131" s="3">
         <v>725</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A132" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B132" s="5">
+        <v>237</v>
+      </c>
+      <c r="C132" s="5">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A133" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B133" s="3">
+        <v>187</v>
+      </c>
+      <c r="C133" s="3">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A134" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B134" s="3">
+        <v>137</v>
+      </c>
+      <c r="C134" s="3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A135" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B135" s="3">
+        <v>109</v>
+      </c>
+      <c r="C135" s="3">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C135"/>
+  <dimension ref="A1:C136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43996</v>
+        <v>43997</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3625,6 +3625,17 @@
       </c>
       <c r="C135" s="3">
         <v>280</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A136" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B136" s="3">
+        <v>241</v>
+      </c>
+      <c r="C136" s="3">
+        <v>744</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,10 +2140,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C136"/>
+  <dimension ref="A1:C137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A137" sqref="A137:C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43997</v>
+        <v>43998</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3636,6 +3636,17 @@
       </c>
       <c r="C136" s="3">
         <v>744</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A137" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B137" s="3">
+        <v>212</v>
+      </c>
+      <c r="C137" s="3">
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,10 +2140,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C137"/>
+  <dimension ref="A1:C138"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137:C137"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43998</v>
+        <v>43999</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3647,6 +3647,17 @@
       </c>
       <c r="C137" s="3">
         <v>589</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A138" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B138" s="3">
+        <v>198</v>
+      </c>
+      <c r="C138" s="3">
+        <v>549</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C138"/>
+  <dimension ref="A1:C139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>43999</v>
+        <v>44000</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3658,6 +3658,17 @@
       </c>
       <c r="C138" s="3">
         <v>549</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A139" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B139" s="3">
+        <v>199</v>
+      </c>
+      <c r="C139" s="3">
+        <v>598</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C139"/>
+  <dimension ref="A1:C140"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44000</v>
+        <v>44001</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3669,6 +3669,17 @@
       </c>
       <c r="C139" s="3">
         <v>598</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A140" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B140" s="3">
+        <v>217</v>
+      </c>
+      <c r="C140" s="3">
+        <v>532</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C140"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44001</v>
+        <v>44004</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3680,6 +3680,39 @@
       </c>
       <c r="C140" s="3">
         <v>532</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A141" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B141" s="3">
+        <v>138</v>
+      </c>
+      <c r="C141" s="3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A142" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B142" s="3">
+        <v>94</v>
+      </c>
+      <c r="C142" s="3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A143" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B143" s="3">
+        <v>236</v>
+      </c>
+      <c r="C143" s="3">
+        <v>755</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C143"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44004</v>
+        <v>44005</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3713,6 +3713,17 @@
       </c>
       <c r="C143" s="3">
         <v>755</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A144" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B144" s="3">
+        <v>177</v>
+      </c>
+      <c r="C144" s="3">
+        <v>653</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C144"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44005</v>
+        <v>44006</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3724,6 +3724,17 @@
       </c>
       <c r="C144" s="3">
         <v>653</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A145" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B145" s="3">
+        <v>194</v>
+      </c>
+      <c r="C145" s="3">
+        <v>618</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C145"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44006</v>
+        <v>44010</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3737,10 +3737,54 @@
         <v>618</v>
       </c>
     </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A146" s="1">
+        <v>44007</v>
+      </c>
+      <c r="B146" s="3">
+        <v>212</v>
+      </c>
+      <c r="C146" s="3">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A147" s="1">
+        <v>44008</v>
+      </c>
+      <c r="B147" s="3">
+        <v>251</v>
+      </c>
+      <c r="C147" s="3">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A148" s="1">
+        <v>44009</v>
+      </c>
+      <c r="B148" s="3">
+        <v>165</v>
+      </c>
+      <c r="C148" s="3">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A149" s="1">
+        <v>44010</v>
+      </c>
+      <c r="B149" s="3">
+        <v>120</v>
+      </c>
+      <c r="C149" s="3">
+        <v>341</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="32" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="25" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C149"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44010</v>
+        <v>44012</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3779,6 +3779,28 @@
       </c>
       <c r="C149" s="3">
         <v>341</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A150" s="1">
+        <v>44011</v>
+      </c>
+      <c r="B150" s="3">
+        <v>278</v>
+      </c>
+      <c r="C150" s="3">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A151" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B151" s="3">
+        <v>220</v>
+      </c>
+      <c r="C151" s="3">
+        <v>823</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C152"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44012</v>
+        <v>44013</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3801,6 +3801,17 @@
       </c>
       <c r="C151" s="3">
         <v>823</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A152" s="1">
+        <v>44013</v>
+      </c>
+      <c r="B152" s="3">
+        <v>239</v>
+      </c>
+      <c r="C152" s="3">
+        <v>697</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C152"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44013</v>
+        <v>44014</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3812,6 +3812,17 @@
       </c>
       <c r="C152" s="3">
         <v>697</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A153" s="1">
+        <v>44014</v>
+      </c>
+      <c r="B153" s="3">
+        <v>249</v>
+      </c>
+      <c r="C153" s="3">
+        <v>810</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44014</v>
+        <v>44015</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3823,6 +3823,17 @@
       </c>
       <c r="C153" s="3">
         <v>810</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A154" s="1">
+        <v>44015</v>
+      </c>
+      <c r="B154" s="3">
+        <v>230</v>
+      </c>
+      <c r="C154" s="3">
+        <v>873</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44015</v>
+        <v>44018</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3834,6 +3834,39 @@
       </c>
       <c r="C154" s="3">
         <v>873</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A155" s="1">
+        <v>44016</v>
+      </c>
+      <c r="B155" s="3">
+        <v>180</v>
+      </c>
+      <c r="C155" s="3">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A156" s="1">
+        <v>44017</v>
+      </c>
+      <c r="B156" s="3">
+        <v>147</v>
+      </c>
+      <c r="C156" s="3">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A157" s="1">
+        <v>44018</v>
+      </c>
+      <c r="B157" s="3">
+        <v>354</v>
+      </c>
+      <c r="C157" s="3">
+        <v>948</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C158"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44018</v>
+        <v>44019</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3867,6 +3867,17 @@
       </c>
       <c r="C157" s="3">
         <v>948</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A158" s="1">
+        <v>44019</v>
+      </c>
+      <c r="B158" s="3">
+        <v>287</v>
+      </c>
+      <c r="C158" s="3">
+        <v>986</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C158"/>
+  <dimension ref="A1:C159"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44019</v>
+        <v>44020</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3878,6 +3878,17 @@
       </c>
       <c r="C158" s="3">
         <v>986</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A159" s="1">
+        <v>44020</v>
+      </c>
+      <c r="B159" s="3">
+        <v>258</v>
+      </c>
+      <c r="C159" s="3">
+        <v>955</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C159"/>
+  <dimension ref="A1:C161"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44020</v>
+        <v>44022</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3889,6 +3889,28 @@
       </c>
       <c r="C159" s="3">
         <v>955</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A160" s="1">
+        <v>44021</v>
+      </c>
+      <c r="B160" s="3">
+        <v>259</v>
+      </c>
+      <c r="C160" s="3">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A161" s="1">
+        <v>44022</v>
+      </c>
+      <c r="B161" s="3">
+        <v>359</v>
+      </c>
+      <c r="C161" s="3">
+        <v>1161</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C165"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44022</v>
+        <v>44026</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3911,6 +3911,50 @@
       </c>
       <c r="C161" s="3">
         <v>1161</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A162" s="1">
+        <v>44023</v>
+      </c>
+      <c r="B162" s="3">
+        <v>266</v>
+      </c>
+      <c r="C162" s="3">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A163" s="1">
+        <v>44024</v>
+      </c>
+      <c r="B163" s="3">
+        <v>244</v>
+      </c>
+      <c r="C163" s="3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A164" s="1">
+        <v>44025</v>
+      </c>
+      <c r="B164" s="3">
+        <v>629</v>
+      </c>
+      <c r="C164" s="3">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A165" s="1">
+        <v>44026</v>
+      </c>
+      <c r="B165" s="3">
+        <v>488</v>
+      </c>
+      <c r="C165" s="3">
+        <v>1562</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C165"/>
+  <dimension ref="A1:C166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3955,6 +3955,17 @@
       </c>
       <c r="C165" s="3">
         <v>1562</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A166" s="1">
+        <v>44027</v>
+      </c>
+      <c r="B166" s="3">
+        <v>500</v>
+      </c>
+      <c r="C166" s="3">
+        <v>1666</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C166"/>
+  <dimension ref="A1:C167"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44027</v>
+        <v>44028</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3966,6 +3966,17 @@
       </c>
       <c r="C166" s="3">
         <v>1666</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A167" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B167" s="3">
+        <v>473</v>
+      </c>
+      <c r="C167" s="3">
+        <v>1946</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C167"/>
+  <dimension ref="A1:C171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44028</v>
+        <v>44032</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -3977,6 +3977,50 @@
       </c>
       <c r="C167" s="3">
         <v>1946</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A168" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B168" s="3">
+        <v>609</v>
+      </c>
+      <c r="C168" s="3">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A169" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B169" s="3">
+        <v>413</v>
+      </c>
+      <c r="C169" s="3">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A170" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B170" s="3">
+        <v>381</v>
+      </c>
+      <c r="C170" s="3">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A171" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B171" s="3">
+        <v>838</v>
+      </c>
+      <c r="C171" s="3">
+        <v>1817</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C171"/>
+  <dimension ref="A1:C172"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44032</v>
+        <v>44033</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4021,6 +4021,17 @@
       </c>
       <c r="C171" s="3">
         <v>1817</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A172" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B172" s="3">
+        <v>784</v>
+      </c>
+      <c r="C172" s="3">
+        <v>2210</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C172"/>
+  <dimension ref="A1:C173"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44033</v>
+        <v>44034</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4032,6 +4032,17 @@
       </c>
       <c r="C172" s="3">
         <v>2210</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A173" s="1">
+        <v>44034</v>
+      </c>
+      <c r="B173" s="3">
+        <v>723</v>
+      </c>
+      <c r="C173" s="3">
+        <v>2061</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2140,7 +2140,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C173"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2155,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44034</v>
+        <v>44039</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4043,6 +4043,61 @@
       </c>
       <c r="C173" s="3">
         <v>2061</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A174" s="1">
+        <v>44035</v>
+      </c>
+      <c r="B174" s="3">
+        <v>549</v>
+      </c>
+      <c r="C174" s="3">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A175" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B175" s="3">
+        <v>365</v>
+      </c>
+      <c r="C175" s="3">
+        <v>1758</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A176" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B176" s="3">
+        <v>435</v>
+      </c>
+      <c r="C176" s="3">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A177" s="1">
+        <v>44038</v>
+      </c>
+      <c r="B177" s="3">
+        <v>448</v>
+      </c>
+      <c r="C177" s="3">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A178" s="1">
+        <v>44039</v>
+      </c>
+      <c r="B178" s="3">
+        <v>954</v>
+      </c>
+      <c r="C178" s="3">
+        <v>2703</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -156,7 +156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -191,6 +191,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2140,7 +2146,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C179"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2155,7 +2161,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44039</v>
+        <v>44040</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4098,6 +4104,17 @@
       </c>
       <c r="C178" s="3">
         <v>2703</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A179" s="12">
+        <v>44040</v>
+      </c>
+      <c r="B179" s="13">
+        <v>747</v>
+      </c>
+      <c r="C179" s="13">
+        <v>2083</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2146,10 +2146,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C179"/>
+  <dimension ref="A1:C180"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A180" sqref="A180:C180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2161,7 +2161,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44040</v>
+        <v>44041</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4115,6 +4115,17 @@
       </c>
       <c r="C179" s="13">
         <v>2083</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A180" s="12">
+        <v>44041</v>
+      </c>
+      <c r="B180" s="13">
+        <v>778</v>
+      </c>
+      <c r="C180" s="13">
+        <v>2324</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2146,10 +2146,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C180"/>
+  <dimension ref="A1:C181"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A180" sqref="A180:C180"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2161,7 +2161,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44041</v>
+        <v>44042</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4126,6 +4126,17 @@
       </c>
       <c r="C180" s="13">
         <v>2324</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A181" s="12">
+        <v>44042</v>
+      </c>
+      <c r="B181" s="13">
+        <v>833</v>
+      </c>
+      <c r="C181" s="13">
+        <v>2217</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2146,7 +2146,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C181"/>
+  <dimension ref="A1:C182"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2161,7 +2161,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44042</v>
+        <v>44043</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4137,6 +4137,18 @@
       </c>
       <c r="C181" s="13">
         <v>2217</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A182" s="12">
+        <v>44043</v>
+      </c>
+      <c r="B182" s="13">
+        <f>447+303</f>
+        <v>750</v>
+      </c>
+      <c r="C182" s="13">
+        <v>2347</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0804\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="4080" yWindow="0" windowWidth="20490" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2148,8 +2148,8 @@
   </sheetPr>
   <dimension ref="A1:C182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B182" sqref="B182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4144,7 +4144,6 @@
         <v>44043</v>
       </c>
       <c r="B182" s="13">
-        <f>447+303</f>
         <v>750</v>
       </c>
       <c r="C182" s="13">

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\コロナ対策サイト\0804\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.19.163.21\share\企画\020_部局・各課懸案\新型コロナ肺炎\コロナサイト立ち上げ\更新用データ\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="0" windowWidth="20490" windowHeight="7680"/>
+    <workbookView xWindow="2010" yWindow="0" windowWidth="20490" windowHeight="7680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2146,10 +2146,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C182"/>
+  <dimension ref="A1:C185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B182" sqref="B182"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2161,7 +2161,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44043</v>
+        <v>44046</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4148,6 +4148,39 @@
       </c>
       <c r="C182" s="13">
         <v>2347</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A183" s="12">
+        <v>44044</v>
+      </c>
+      <c r="B183" s="13">
+        <v>435</v>
+      </c>
+      <c r="C183" s="13">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A184" s="12">
+        <v>44045</v>
+      </c>
+      <c r="B184" s="13">
+        <v>458</v>
+      </c>
+      <c r="C184" s="13">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A185" s="12">
+        <v>44046</v>
+      </c>
+      <c r="B185" s="13">
+        <v>853</v>
+      </c>
+      <c r="C185" s="13">
+        <v>2427</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2146,10 +2146,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C185"/>
+  <dimension ref="A1:C186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2161,7 +2161,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44046</v>
+        <v>44047</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4181,6 +4181,17 @@
       </c>
       <c r="C185" s="13">
         <v>2427</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A186" s="12">
+        <v>44047</v>
+      </c>
+      <c r="B186" s="13">
+        <v>772</v>
+      </c>
+      <c r="C186" s="13">
+        <v>2602</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2146,10 +2146,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C186"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2161,7 +2161,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44047</v>
+        <v>44048</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4192,6 +4192,17 @@
       </c>
       <c r="C186" s="13">
         <v>2602</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A187" s="12">
+        <v>44048</v>
+      </c>
+      <c r="B187" s="13">
+        <v>723</v>
+      </c>
+      <c r="C187" s="13">
+        <v>2494</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2146,7 +2146,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C189"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2161,7 +2161,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44048</v>
+        <v>44050</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4203,6 +4203,28 @@
       </c>
       <c r="C187" s="13">
         <v>2494</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A188" s="12">
+        <v>44049</v>
+      </c>
+      <c r="B188" s="13">
+        <v>625</v>
+      </c>
+      <c r="C188" s="13">
+        <v>2490</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A189" s="12">
+        <v>44050</v>
+      </c>
+      <c r="B189" s="13">
+        <v>679</v>
+      </c>
+      <c r="C189" s="13">
+        <v>2754</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2146,10 +2146,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C189"/>
+  <dimension ref="A1:C194"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C194" sqref="C194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2161,7 +2161,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44050</v>
+        <v>44055</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4225,6 +4225,61 @@
       </c>
       <c r="C189" s="13">
         <v>2754</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A190" s="12">
+        <v>44051</v>
+      </c>
+      <c r="B190" s="13">
+        <v>410</v>
+      </c>
+      <c r="C190" s="13">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A191" s="12">
+        <v>44052</v>
+      </c>
+      <c r="B191" s="13">
+        <v>404</v>
+      </c>
+      <c r="C191" s="13">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A192" s="12">
+        <v>44053</v>
+      </c>
+      <c r="B192" s="13">
+        <v>454</v>
+      </c>
+      <c r="C192" s="13">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A193" s="12">
+        <v>44054</v>
+      </c>
+      <c r="B193" s="13">
+        <v>725</v>
+      </c>
+      <c r="C193" s="13">
+        <v>1706</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A194" s="12">
+        <v>44055</v>
+      </c>
+      <c r="B194" s="13">
+        <v>522</v>
+      </c>
+      <c r="C194" s="13">
+        <v>2178</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2146,10 +2146,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C194"/>
+  <dimension ref="A1:C196"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C194" sqref="C194"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2161,7 +2161,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44055</v>
+        <v>44057</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4280,6 +4280,28 @@
       </c>
       <c r="C194" s="13">
         <v>2178</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A195" s="12">
+        <v>44056</v>
+      </c>
+      <c r="B195" s="13">
+        <v>467</v>
+      </c>
+      <c r="C195" s="13">
+        <v>1963</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A196" s="12">
+        <v>44057</v>
+      </c>
+      <c r="B196" s="13">
+        <v>508</v>
+      </c>
+      <c r="C196" s="13">
+        <v>2046</v>
       </c>
     </row>
   </sheetData>

--- a/data/contacts2.xlsx
+++ b/data/contacts2.xlsx
@@ -2146,10 +2146,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C196"/>
+  <dimension ref="A1:C199"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C199" sqref="C199"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2161,7 +2161,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="6">
-        <v>44057</v>
+        <v>44060</v>
       </c>
       <c r="B1" t="s">
         <v>3</v>
@@ -4302,6 +4302,39 @@
       </c>
       <c r="C196" s="13">
         <v>2046</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A197" s="12">
+        <v>44058</v>
+      </c>
+      <c r="B197" s="13">
+        <v>368</v>
+      </c>
+      <c r="C197" s="13">
+        <v>1612</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A198" s="12">
+        <v>44059</v>
+      </c>
+      <c r="B198" s="13">
+        <v>382</v>
+      </c>
+      <c r="C198" s="13">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A199" s="12">
+        <v>44060</v>
+      </c>
+      <c r="B199" s="13">
+        <v>798</v>
+      </c>
+      <c r="C199" s="13">
+        <v>2552</v>
       </c>
     </row>
   </sheetData>
